--- a/Data/Transitions/19531973Translation.xlsx
+++ b/Data/Transitions/19531973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="718">
   <si>
     <t>id</t>
   </si>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -769,7 +769,7 @@
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.629934096866161e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.629934096866161e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.0614376204405384e-06}</t>
@@ -1315,7 +1315,7 @@
     <t>{887.0: 0.996169353647658, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1420,7 +1420,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1753,9 +1753,6 @@
     <t>{315.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
   </si>
   <si>
@@ -2050,7 +2047,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611932, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2149,7 +2146,7 @@
     <t>{936.0: 0.9836341995635787, 637.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.003833906064369998, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0033035414140719214, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
@@ -4643,7 +4640,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>579</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4654,7 +4651,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4676,7 +4673,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4687,7 +4684,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4698,7 +4695,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4709,7 +4706,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4720,7 +4717,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4764,7 +4761,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4830,7 +4827,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4852,7 +4849,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4874,7 +4871,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4885,7 +4882,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4907,7 +4904,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4984,7 +4981,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5006,7 +5003,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5017,7 +5014,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5028,7 +5025,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5050,7 +5047,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5094,7 +5091,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5105,7 +5102,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5116,7 +5113,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5127,7 +5124,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5138,7 +5135,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5160,7 +5157,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5259,7 +5256,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5270,7 +5267,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5281,7 +5278,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5303,7 +5300,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5325,7 +5322,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5336,7 +5333,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5413,7 +5410,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5424,7 +5421,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5435,7 +5432,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5457,7 +5454,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5479,7 +5476,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5490,7 +5487,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5501,7 +5498,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5534,7 +5531,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5556,7 +5553,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5567,7 +5564,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5578,7 +5575,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5589,7 +5586,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5600,7 +5597,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5611,7 +5608,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5633,7 +5630,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5644,7 +5641,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5666,7 +5663,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5677,7 +5674,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5688,7 +5685,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5699,7 +5696,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5710,7 +5707,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5754,7 +5751,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5765,7 +5762,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5798,7 +5795,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5831,7 +5828,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5886,7 +5883,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5897,7 +5894,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5919,7 +5916,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5930,7 +5927,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5952,7 +5949,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5974,7 +5971,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5985,7 +5982,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6018,7 +6015,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6040,7 +6037,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6051,7 +6048,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6073,7 +6070,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6128,7 +6125,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6150,7 +6147,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6205,7 +6202,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6216,7 +6213,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6227,7 +6224,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6238,7 +6235,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6249,7 +6246,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6260,7 +6257,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6271,7 +6268,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6282,7 +6279,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6304,7 +6301,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6315,7 +6312,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6337,7 +6334,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6348,7 +6345,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6381,7 +6378,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6392,7 +6389,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6436,7 +6433,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6458,7 +6455,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6469,7 +6466,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6480,7 +6477,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6513,7 +6510,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6524,7 +6521,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6557,7 +6554,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6568,7 +6565,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6579,7 +6576,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6612,7 +6609,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6656,7 +6653,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6711,7 +6708,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6733,7 +6730,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6799,7 +6796,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6832,7 +6829,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6887,7 +6884,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6898,7 +6895,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6931,7 +6928,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6942,7 +6939,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6953,7 +6950,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6975,7 +6972,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6986,7 +6983,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6997,7 +6994,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7008,7 +7005,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7019,7 +7016,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7030,7 +7027,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7041,7 +7038,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7052,7 +7049,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7085,7 +7082,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7107,7 +7104,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7129,7 +7126,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7151,7 +7148,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7206,7 +7203,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7261,7 +7258,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7272,7 +7269,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7283,7 +7280,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7338,7 +7335,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7349,7 +7346,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7360,7 +7357,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7371,7 +7368,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7382,7 +7379,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7393,7 +7390,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7404,7 +7401,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7415,7 +7412,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7437,7 +7434,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7514,7 +7511,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7547,7 +7544,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7580,7 +7577,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7613,7 +7610,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7646,7 +7643,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7668,7 +7665,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7690,7 +7687,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7712,7 +7709,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7723,7 +7720,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7745,7 +7742,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7756,7 +7753,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7811,7 +7808,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7855,7 +7852,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
